--- a/docs/APOYOS_CCD.xlsx
+++ b/docs/APOYOS_CCD.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GENERAL" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DIEGO RODRIGUEZ" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JOSE LUIS VALVERDE" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="JUAN CARLOS HUATAY" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="YOLANDA OLIVA" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RAQUEL CAYETANO" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="GENERAL" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DIEGO RODRIGUEZ" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="JOSE LUIS VALVERDE" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="JUAN CARLOS HUATAY" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="YOLANDA OLIVA" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="RAQUEL CAYETANO" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H404"/>
+  <dimension ref="A1:H403"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>DAC TELCO 1/INSTALADOR</t>
+          <t>INSTALADOR</t>
         </is>
       </c>
     </row>
@@ -8901,22 +8901,34 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>4073906</t>
+          <t>4073930</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>RED MOBILE FAED E.I.R.L.</t>
+          <t>PASTRANA JIMENEZ MARILUZ ROCIO</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr"/>
-      <c r="E205" t="inlineStr"/>
-      <c r="F205" t="inlineStr"/>
+          <t>YOLANDA OLIVA</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>JOSE LUIS VALVERDE</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>DIEGO RODRIGUEZ</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>RAQUEL CAYETANO</t>
+        </is>
+      </c>
       <c r="G205" t="inlineStr">
         <is>
           <t>OPERATIVO CON MOVIMIENTO</t>
@@ -8924,24 +8936,24 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>DACE</t>
+          <t>DAC TELCO 1</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>4073930</t>
+          <t>4073935</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>PASTRANA JIMENEZ MARILUZ ROCIO</t>
+          <t>VENTELCOM S.A.C.</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -8951,12 +8963,12 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -8973,12 +8985,12 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>4073935</t>
+          <t>4074012</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>VENTELCOM S.A.C.</t>
+          <t>GAK MOBILE S.A.C.</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -8988,17 +9000,17 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -9015,32 +9027,32 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>4074012</t>
+          <t>4074017</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>GAK MOBILE S.A.C.</t>
+          <t>JKS YOMI E.I.R.L.</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -9050,29 +9062,29 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>DAC TELCO 1</t>
+          <t>DACE</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>4074017</t>
+          <t>4074034</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>JKS YOMI E.I.R.L.</t>
+          <t>IMPACTO MOVIL GLOBAL S.A.C.</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -9082,7 +9094,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -9099,32 +9111,32 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>4074034</t>
+          <t>4074039</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>IMPACTO MOVIL GLOBAL S.A.C.</t>
+          <t>SMART CONECTION S.A.C.</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -9141,22 +9153,22 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>4074039</t>
+          <t>4074041</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>SMART CONECTION S.A.C.</t>
+          <t>ALL CELL E.I.R.L.</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -9176,39 +9188,39 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>DACE</t>
+          <t>DAC TELCO 1</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>4074041</t>
+          <t>4074074</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>ALL CELL E.I.R.L.</t>
+          <t>LOPEZ VIDEIRA LILIANA</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -9225,27 +9237,27 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>4074074</t>
+          <t>4074088</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>LOPEZ VIDEIRA LILIANA</t>
+          <t>INOMAS MIRAVAL WENDY TATIANA</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -9267,17 +9279,17 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>4074088</t>
+          <t>4074104</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>INOMAS MIRAVAL WENDY TATIANA</t>
+          <t>LINE BUSINESS M&amp;R E.I.R.L.</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -9287,12 +9299,12 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -9309,32 +9321,32 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>4074104</t>
+          <t>4074118</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>LINE BUSINESS M&amp;R E.I.R.L.</t>
+          <t>MOVIL SHOP S.A.C.</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -9351,12 +9363,12 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>4074118</t>
+          <t>4074150</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>MOVIL SHOP S.A.C.</t>
+          <t>GALICIA J&amp;S E.I.R.L.</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -9366,17 +9378,17 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -9393,32 +9405,32 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>4074150</t>
+          <t>4074175</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>GALICIA J&amp;S E.I.R.L.</t>
+          <t>COMPUSERVICE IQUITOS E.I.R.L</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -9435,32 +9447,32 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>4074175</t>
+          <t>4074190</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>COMPUSERVICE IQUITOS E.I.R.L</t>
+          <t>HUACCHA QUISPE RICARDO</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -9477,32 +9489,32 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>4074190</t>
+          <t>4074207</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>HUACCHA QUISPE RICARDO</t>
+          <t>LIMA F&amp;S TELECOMUNICACIONES E.I.R.L.</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -9512,44 +9524,44 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>DAC TELCO 1</t>
+          <t>DAC TELCO MR</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>4074207</t>
+          <t>4074220</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>LIMA F&amp;S TELECOMUNICACIONES E.I.R.L.</t>
+          <t>OCTA S.A.C.</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>OPERATIVO CON MOVIMIENTO</t>
+          <t>OPERATIVO SIN MOVIMIENTO</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -9561,17 +9573,17 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>4074220</t>
+          <t>4074224</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>OCTA S.A.C.</t>
+          <t>TEMD SOLUTIONS S.A.C.</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -9581,44 +9593,44 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>OPERATIVO SIN MOVIMIENTO</t>
+          <t>OPERATIVO CON MOVIMIENTO</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>DAC TELCO MR</t>
+          <t>DAC TELCO 1</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>4074224</t>
+          <t>4074225</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>TEMD SOLUTIONS S.A.C.</t>
+          <t>AEMI GROUP E.I.R.L.</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -9628,7 +9640,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -9645,32 +9657,32 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>4074225</t>
+          <t>4074226</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>AEMI GROUP E.I.R.L.</t>
+          <t>INVERSIONES MASSTECH E.I.R.L.</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -9687,12 +9699,12 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>4074226</t>
+          <t>4074236</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>INVERSIONES MASSTECH E.I.R.L.</t>
+          <t>SOLOTELL COMUNICACIONES S.A.C.</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -9702,7 +9714,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
@@ -9712,7 +9724,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -9729,37 +9741,25 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>4074236</t>
+          <t>4074285</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>SOLOTELL COMUNICACIONES S.A.C.</t>
+          <t>JS INVERSIONES &amp; MULTISERVICIOS E.I.R.L.</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>YOLANDA OLIVA</t>
-        </is>
-      </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>JUAN CARLOS HUATAY</t>
-        </is>
-      </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>JOSE LUIS VALVERDE</t>
-        </is>
-      </c>
+          <t>YOLANDA OLIVA</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr"/>
+      <c r="E225" t="inlineStr"/>
+      <c r="F225" t="inlineStr"/>
       <c r="G225" t="inlineStr">
         <is>
-          <t>OPERATIVO CON MOVIMIENTO</t>
+          <t>PROCESO DE RESOLUCIÓN</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -9771,62 +9771,74 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>4074285</t>
+          <t>4074286</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>JS INVERSIONES &amp; MULTISERVICIOS E.I.R.L.</t>
+          <t>MH VENTAS Y SERVICIOS E.I.R.L.</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
-        </is>
-      </c>
-      <c r="D226" t="inlineStr"/>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
+          <t>DIEGO RODRIGUEZ</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>JOSE LUIS VALVERDE</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>RAQUEL CAYETANO</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>YOLANDA OLIVA</t>
+        </is>
+      </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>PROCESO DE RESOLUCIÓN</t>
+          <t>OPERATIVO CON MOVIMIENTO</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>DAC TELCO 1</t>
+          <t>DAC TELCO MR</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>4074286</t>
+          <t>4074311</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>MH VENTAS Y SERVICIOS E.I.R.L.</t>
+          <t>A2B TELECOMUNICACIONES PERU S.A.C</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -9843,17 +9855,17 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>4074311</t>
+          <t>4074312</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>A2B TELECOMUNICACIONES PERU S.A.C</t>
+          <t xml:space="preserve">NOVO NETWORKS S.A.C. </t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -9863,12 +9875,12 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -9878,39 +9890,39 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>DAC TELCO MR</t>
+          <t>DACE</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>4074312</t>
+          <t>4074315</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t xml:space="preserve">NOVO NETWORKS S.A.C. </t>
+          <t>RIMAY CONNECTION SAC</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -9920,39 +9932,39 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>DACE</t>
+          <t>DAC TELCO 1</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>4074315</t>
+          <t>4074317</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>RIMAY CONNECTION SAC</t>
+          <t>MALVITEC E.I.R.L</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -9969,12 +9981,12 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>4074317</t>
+          <t>4074327</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>MALVITEC E.I.R.L</t>
+          <t>MG SUPPORTS S.A.C.</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -9984,17 +9996,17 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -10004,39 +10016,39 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>DAC TELCO 1</t>
+          <t>DACE</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>4074327</t>
+          <t>4074354</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>MG SUPPORTS S.A.C.</t>
+          <t>GRUPO ALEGE S.A.C.</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -10046,24 +10058,24 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>DACE</t>
+          <t>DAC TELCO 1</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>4074354</t>
+          <t>4074355</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>GRUPO ALEGE S.A.C.</t>
+          <t xml:space="preserve">NEXUM DIGITAL GROUP S.A.C. </t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -10073,12 +10085,12 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -10088,34 +10100,34 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>DAC TELCO 1</t>
+          <t>DACE</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>4074355</t>
+          <t>4074359</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t xml:space="preserve">NEXUM DIGITAL GROUP S.A.C. </t>
+          <t>PASTRANA MACHUCA GIANCARLO ALFREDO</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
@@ -10130,34 +10142,34 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>DACE</t>
+          <t>DAC TELCO 1</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>4074359</t>
+          <t>4074362</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>PASTRANA MACHUCA GIANCARLO ALFREDO</t>
+          <t>MELENDEZ LINARES MARIO ALEJANDRO</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -10179,32 +10191,32 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>4074362</t>
+          <t>4074366</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>MELENDEZ LINARES MARIO ALEJANDRO</t>
+          <t>IN CONNECT S.A.C.</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -10214,39 +10226,39 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>DAC TELCO 1</t>
+          <t>DACE</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>4074366</t>
+          <t>4074367</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>IN CONNECT S.A.C.</t>
+          <t>GEMINIS TELECOMUNICACIONES E.I.R.L.</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -10263,17 +10275,17 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>4074367</t>
+          <t>4074373</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>GEMINIS TELECOMUNICACIONES E.I.R.L.</t>
+          <t>ALVARADO SUNCION FABIOLA MAYELLI</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -10288,7 +10300,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -10298,39 +10310,39 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>DACE</t>
+          <t>DAC TELCO 1</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>4074373</t>
+          <t>4074389</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>ALVARADO SUNCION FABIOLA MAYELLI</t>
+          <t xml:space="preserve">CARRANZA MENDOZA NURIA JANINA </t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -10347,32 +10359,32 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>4074389</t>
+          <t>4074408</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t xml:space="preserve">CARRANZA MENDOZA NURIA JANINA </t>
+          <t>BUSINESS MASTER LOZAMORA S.A.C.</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -10382,34 +10394,34 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>DAC TELCO 1</t>
+          <t>DACE</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>4074408</t>
+          <t>4074411</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>BUSINESS MASTER LOZAMORA S.A.C.</t>
+          <t>CHIRINOS GUERREROS LUIS ENRIQUE</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -10424,29 +10436,29 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>DACE</t>
+          <t>DAC TELCO 1</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>4074411</t>
+          <t>4074422</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>CHIRINOS GUERREROS LUIS ENRIQUE</t>
+          <t>DAJOTEL S.A.C.</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -10456,7 +10468,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -10473,12 +10485,12 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>4074422</t>
+          <t>4074428</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>DAJOTEL S.A.C.</t>
+          <t>CONSORCIO TELEFAST E.I.R.L.</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -10488,17 +10500,17 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -10515,12 +10527,12 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>4074428</t>
+          <t>4074432</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>CONSORCIO TELEFAST E.I.R.L.</t>
+          <t>PACHECO SANTIVAÑEZ GLINDYS MARIBEL</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -10530,7 +10542,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -10557,32 +10569,32 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>4074432</t>
+          <t>4074436</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>PACHECO SANTIVAÑEZ GLINDYS MARIBEL</t>
+          <t>AP &amp; TELL S.A.C.</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
@@ -10592,71 +10604,71 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>DAC TELCO 1</t>
+          <t>DACE</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>4074436</t>
+          <t>4074441</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>AP &amp; TELL S.A.C.</t>
+          <t>TELEFINPER S.A.C.</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>OPERATIVO CON MOVIMIENTO</t>
+          <t>OPERATIVO SIN MOVIMIENTO</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>DACE</t>
+          <t>DAC TELCO MR</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>4074441</t>
+          <t>4074442</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>TELEFINPER S.A.C.</t>
+          <t>EMPRESA TECNOLOGICA R&amp;C E.I.R.L.</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -10666,49 +10678,49 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>OPERATIVO SIN MOVIMIENTO</t>
+          <t>OPERATIVO CON MOVIMIENTO</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>DAC TELCO MR</t>
+          <t>DAC TELCO 1</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>4074442</t>
+          <t>4074454</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>EMPRESA TECNOLOGICA R&amp;C E.I.R.L.</t>
+          <t>E&amp;R CORP E.I.R.L.</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
@@ -10725,32 +10737,32 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>4074454</t>
+          <t>4074456</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>E&amp;R CORP E.I.R.L.</t>
+          <t>FORZA BUSINESS CORP E.I.R.L.</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -10760,19 +10772,19 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>DAC TELCO 1</t>
+          <t>DACE</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>4074456</t>
+          <t>4074460</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>FORZA BUSINESS CORP E.I.R.L.</t>
+          <t>HMCCENTER S.A.C.</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -10782,7 +10794,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -10802,29 +10814,29 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>DACE</t>
+          <t>DAC TELCO MR</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>4074460</t>
+          <t>4074461</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>HMCCENTER S.A.C.</t>
+          <t>COMPANY D&amp;C DIGITAL GROUP S.A.C.</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -10834,7 +10846,7 @@
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
@@ -10851,32 +10863,32 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>4074461</t>
+          <t>4074462</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>COMPANY D&amp;C DIGITAL GROUP S.A.C.</t>
+          <t>FORMATEL INNOVA S.A.C.</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
@@ -10893,17 +10905,17 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>4074462</t>
+          <t>4074463</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>FORMATEL INNOVA S.A.C.</t>
+          <t>TECAL MOVIL EIRL</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -10918,7 +10930,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
@@ -10928,29 +10940,29 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>DAC TELCO MR</t>
+          <t>DAC TELCO 1</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>4074463</t>
+          <t>4074465</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>TECAL MOVIL EIRL</t>
+          <t>LIDERES EN TECNOLOGIA NACHITO E.I.R.L.</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -10960,7 +10972,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
@@ -10977,17 +10989,17 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>4074465</t>
+          <t>4074479</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>LIDERES EN TECNOLOGIA NACHITO E.I.R.L.</t>
+          <t>CORPORACION JEAN PAUL S.A.C.</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -10997,7 +11009,7 @@
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
@@ -11012,81 +11024,81 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>DAC TELCO 1</t>
+          <t>DAC TELCO 2</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>4074479</t>
+          <t>4074481</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>CORPORACION JEAN PAUL S.A.C.</t>
+          <t>TEL.COM JML EIRL</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>OPERATIVO CON MOVIMIENTO</t>
+          <t>OPERATIVO SIN MOVIMIENTO</t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>DAC TELCO 2</t>
+          <t>DAC TELCO 1</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>4074481</t>
+          <t>4074483</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>TEL.COM JML EIRL</t>
+          <t>DE LA CRUZ NOA ANITA</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
@@ -11103,22 +11115,22 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>4074483</t>
+          <t>4074490</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>DE LA CRUZ NOA ANITA</t>
+          <t xml:space="preserve">TELEMARK SPAIN SL </t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -11128,7 +11140,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
@@ -11138,19 +11150,19 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>DAC TELCO 1</t>
+          <t>TELEVENTAS</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>4074490</t>
+          <t>4074508</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t xml:space="preserve">TELEMARK SPAIN SL </t>
+          <t>COMARTEL COMPANY S.A.C.</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -11160,7 +11172,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -11180,39 +11192,39 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>TELEVENTAS</t>
+          <t>DAC TELCO 1</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>4074508</t>
+          <t>4074513</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>COMARTEL COMPANY S.A.C.</t>
+          <t>RELOADLY  INC</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -11222,39 +11234,39 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>DAC TELCO 1</t>
+          <t>CROSSBORDER</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>4074513</t>
+          <t>4074515</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>RELOADLY  INC</t>
+          <t xml:space="preserve">SANTEL ORIENTE EIRL </t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
@@ -11264,39 +11276,39 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>CROSSBORDER</t>
+          <t>DAC TELCO 1</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>4074515</t>
+          <t>4074516</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t xml:space="preserve">SANTEL ORIENTE EIRL </t>
+          <t>TEAM &amp; NETWORK E.I.R.L</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
@@ -11306,19 +11318,19 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>DAC TELCO 1</t>
+          <t>DAC TELCO MR</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>4074516</t>
+          <t>4074519</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>TEAM &amp; NETWORK E.I.R.L</t>
+          <t>CUMANDA GARATE SILVANA</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -11348,39 +11360,39 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>DAC TELCO MR</t>
+          <t>DAC TELCO 1</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>4074519</t>
+          <t>4074525</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>CUMANDA GARATE SILVANA</t>
+          <t>TIENDAS OMOVIL E.I.R.L</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -11390,39 +11402,39 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>DAC TELCO 1</t>
+          <t>DAC TELCO 2</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>4074525</t>
+          <t>4074528</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>TIENDAS OMOVIL E.I.R.L</t>
+          <t xml:space="preserve">ACJ FLORES SERVICIOS GLOBALES S.A.C. </t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
@@ -11432,19 +11444,19 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>DAC TELCO 2</t>
+          <t>DAC TELCO MR</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>4074528</t>
+          <t>4074539</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t xml:space="preserve">ACJ FLORES SERVICIOS GLOBALES S.A.C. </t>
+          <t>TELECOMUNICACIONES LA TOXICA S.R.L</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -11474,34 +11486,34 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>DAC TELCO MR</t>
+          <t>DAC TELCO 1</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>4074539</t>
+          <t>4074547</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>TELECOMUNICACIONES LA TOXICA S.R.L</t>
+          <t>REPRESENTACIONES AMILU EIRL</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
@@ -11516,34 +11528,34 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>DAC TELCO 1</t>
+          <t>DACE</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>4074547</t>
+          <t>4074556</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>REPRESENTACIONES AMILU EIRL</t>
+          <t>GLOBAL CONNECT EIRL</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
@@ -11565,32 +11577,32 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>4074556</t>
+          <t>4074559</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>GLOBAL CONNECT EIRL</t>
+          <t>MOVIL TOTAL PERU E.I.R.L.</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
@@ -11600,29 +11612,29 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>DACE</t>
+          <t>DAC TELCO 1</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>4074559</t>
+          <t>4074570</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>MOVIL TOTAL PERU E.I.R.L.</t>
+          <t>CITY FON E.I.R.L.</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
@@ -11632,7 +11644,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
@@ -11642,39 +11654,39 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>DAC TELCO 1</t>
+          <t>DAC TELCO 2</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>4074570</t>
+          <t>4074576</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>CITY FON E.I.R.L.</t>
+          <t>INVERSIONES SAKISA Y ASOCIADOS S.A.C.</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
@@ -11691,12 +11703,12 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>4074576</t>
+          <t>4074578</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>INVERSIONES SAKISA Y ASOCIADOS S.A.C.</t>
+          <t>GRUPO ROSAQUI S.A.C.</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -11711,12 +11723,12 @@
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
@@ -11726,29 +11738,29 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>DAC TELCO 2</t>
+          <t>DAC TELCO 1</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>4074578</t>
+          <t>4074581</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>GRUPO ROSAQUI S.A.C.</t>
+          <t>BRANDT TELECOM EIRL</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -11758,7 +11770,7 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
@@ -11768,19 +11780,19 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>DAC TELCO 1</t>
+          <t>DACE</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>4074581</t>
+          <t>4074610</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>BRANDT TELECOM EIRL</t>
+          <t>DEMF SOLUTIONS E.I.R.L.</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -11790,17 +11802,17 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
@@ -11817,12 +11829,12 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>4074605</t>
+          <t>4074611</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>MR CALL SOLUTION S.A.C.</t>
+          <t>RB INVERSIONES E.I.R.L</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -11830,9 +11842,21 @@
           <t>RAQUEL CAYETANO</t>
         </is>
       </c>
-      <c r="D275" t="inlineStr"/>
-      <c r="E275" t="inlineStr"/>
-      <c r="F275" t="inlineStr"/>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>JOSE LUIS VALVERDE</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>YOLANDA OLIVA</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>DIEGO RODRIGUEZ</t>
+        </is>
+      </c>
       <c r="G275" t="inlineStr">
         <is>
           <t>OPERATIVO CON MOVIMIENTO</t>
@@ -11840,19 +11864,19 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>DAC TELCO 1</t>
+          <t>DAC TELCO 2</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>4074610</t>
+          <t>4074612</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>DEMF SOLUTIONS E.I.R.L.</t>
+          <t>A &amp; L RED Y COMUNICACIONES MOVIL E.I.R.L.</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -11862,17 +11886,17 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
@@ -11889,17 +11913,17 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>4074611</t>
+          <t>4074616</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>RB INVERSIONES E.I.R.L</t>
+          <t>BETZATEL S.A.C.</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -11914,7 +11938,7 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
@@ -11924,39 +11948,39 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>DAC TELCO 2</t>
+          <t>DAC TELCO MR</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>4074612</t>
+          <t>4074620</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>A &amp; L RED Y COMUNICACIONES MOVIL E.I.R.L.</t>
+          <t>V&amp;V TELESERVICIOS E.I.R.L.</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
@@ -11966,24 +11990,24 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>DACE</t>
+          <t>DAC TELCO MR</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>4074616</t>
+          <t>4074632</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>BETZATEL S.A.C.</t>
+          <t>CIXLI CELL S.A.C.</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -11993,12 +12017,12 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
@@ -12008,39 +12032,39 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>DAC TELCO MR</t>
+          <t>DAC TELCO 1</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>4074620</t>
+          <t>4074633</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>V&amp;V TELESERVICIOS E.I.R.L.</t>
+          <t>ODJ TELECOMUNICACIONES S.A.C</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
@@ -12050,29 +12074,29 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>DAC TELCO MR</t>
+          <t>DAC TELCO 1</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>4074632</t>
+          <t>4074635</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>CIXLI CELL S.A.C.</t>
+          <t>C &amp; S SOLUCIONES DIGITALES Y TELECOMUNICACIONES E.I.R.L.</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
@@ -12082,12 +12106,12 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>OPERATIVO CON MOVIMIENTO</t>
+          <t>OPERATIVO SIN MOVIMIENTO</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
@@ -12099,12 +12123,12 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>4074633</t>
+          <t>4074645</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>ODJ TELECOMUNICACIONES S.A.C</t>
+          <t>CORPORACION DIGITAL MOVIL E.I.R.L</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -12114,17 +12138,17 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
@@ -12141,74 +12165,74 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>4074635</t>
+          <t>4074657</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>C &amp; S SOLUCIONES DIGITALES Y TELECOMUNICACIONES E.I.R.L.</t>
+          <t>A &amp; R SMARTTEC E.I.R.L.</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>OPERATIVO SIN MOVIMIENTO</t>
+          <t>OPERATIVO CON MOVIMIENTO</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>DAC TELCO 1</t>
+          <t>DAC TELCO MR</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>4074645</t>
+          <t>4074661</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>CORPORACION DIGITAL MOVIL E.I.R.L</t>
+          <t>EXPANSION TEC MYE S.A.C</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
@@ -12225,32 +12249,32 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>4074657</t>
+          <t>4074668</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>A &amp; R SMARTTEC E.I.R.L.</t>
+          <t>SANTILLAN CARITIMARI BRYAN</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
@@ -12260,24 +12284,24 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>DAC TELCO MR</t>
+          <t>DAC TELCO 1</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>4074661</t>
+          <t>4074676</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>EXPANSION TEC MYE S.A.C</t>
+          <t>GRUPO TELCO S.R.L.</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -12302,44 +12326,44 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>DAC TELCO 1</t>
+          <t>DAC TELCO 2</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>4074668</t>
+          <t>4074681</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>SANTILLAN CARITIMARI BRYAN</t>
+          <t>IMANAR SOLUTION S.A.C</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>OPERATIVO CON MOVIMIENTO</t>
+          <t>OPERATIVO SIN MOVIMIENTO</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
@@ -12351,69 +12375,69 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>4074676</t>
+          <t>4074690</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>GRUPO TELCO S.R.L.</t>
+          <t>ATIQ BPO E.I.R.L.</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>OPERATIVO CON MOVIMIENTO</t>
+          <t>OPERATIVO SIN MOVIMIENTO</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>DAC TELCO 2</t>
+          <t>DAC TELCO MR</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>4074681</t>
+          <t>4074692</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>IMANAR SOLUTION S.A.C</t>
+          <t>INVERSOL EMPRESAS E.I.R.L.</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
@@ -12423,49 +12447,49 @@
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>OPERATIVO SIN MOVIMIENTO</t>
+          <t>OPERATIVO CON MOVIMIENTO</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>DAC TELCO 1</t>
+          <t>DACE</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>4074690</t>
+          <t>4074713</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>ATIQ BPO E.I.R.L.</t>
+          <t>TELECOM TECONTACTO BPO S.A.C.</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>OPERATIVO SIN MOVIMIENTO</t>
+          <t>OPERATIVO CON MOVIMIENTO</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
@@ -12477,22 +12501,22 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>4074692</t>
+          <t>4074715</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>INVERSOL EMPRESAS E.I.R.L.</t>
+          <t>NOA INGA DAVID</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
@@ -12502,7 +12526,7 @@
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
@@ -12512,24 +12536,24 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>DACE</t>
+          <t>DAC TELCO 1</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>4074713</t>
+          <t>4074721</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>TELECOM TECONTACTO BPO S.A.C.</t>
+          <t>COMUNICA HS &amp; AZ S.A.C.</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -12544,7 +12568,7 @@
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
@@ -12561,32 +12585,32 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>4074715</t>
+          <t>4074722</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>NOA INGA DAVID</t>
+          <t>TIPTEL S.A.C.</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
@@ -12603,64 +12627,64 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>4074721</t>
+          <t>4074733</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>COMUNICA HS &amp; AZ S.A.C.</t>
+          <t>CLAYCRAL E.I.R.L.</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>OPERATIVO CON MOVIMIENTO</t>
+          <t>OPERATIVO SIN MOVIMIENTO</t>
         </is>
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>DAC TELCO MR</t>
+          <t>DAC TELCO 1</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>4074722</t>
+          <t>4074750</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>TIPTEL S.A.C.</t>
+          <t>OPENTEL S.A.C.</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
@@ -12680,41 +12704,29 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>DAC TELCO 1</t>
+          <t>DAC TELCO MR</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>4074733</t>
+          <t>4074763</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>CLAYCRAL E.I.R.L.</t>
+          <t>CORPORACION TELEDIGITAL E.I.R.L.</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
-        </is>
-      </c>
-      <c r="D296" t="inlineStr">
-        <is>
-          <t>DIEGO RODRIGUEZ</t>
-        </is>
-      </c>
-      <c r="E296" t="inlineStr">
-        <is>
-          <t>RAQUEL CAYETANO</t>
-        </is>
-      </c>
-      <c r="F296" t="inlineStr">
-        <is>
-          <t>YOLANDA OLIVA</t>
-        </is>
-      </c>
+          <t>YOLANDA OLIVA</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr"/>
+      <c r="E296" t="inlineStr"/>
+      <c r="F296" t="inlineStr"/>
       <c r="G296" t="inlineStr">
         <is>
           <t>OPERATIVO SIN MOVIMIENTO</t>
@@ -12729,22 +12741,22 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>4074750</t>
+          <t>4074772</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>OPENTEL S.A.C.</t>
+          <t>SERVICIOS GIA E.I.R.L.</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
@@ -12754,7 +12766,7 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
@@ -12764,49 +12776,61 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>DAC TELCO MR</t>
+          <t>DAC TELCO 1</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>4074763</t>
+          <t>4074778</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>CORPORACION TELEDIGITAL E.I.R.L.</t>
+          <t>INVERSIONES SOLANO SUCNO S.A.C.</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
-        </is>
-      </c>
-      <c r="D298" t="inlineStr"/>
-      <c r="E298" t="inlineStr"/>
-      <c r="F298" t="inlineStr"/>
+          <t>DIEGO RODRIGUEZ</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>JOSE LUIS VALVERDE</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>JUAN CARLOS HUATAY</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>RAQUEL CAYETANO</t>
+        </is>
+      </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>OPERATIVO SIN MOVIMIENTO</t>
+          <t>OPERATIVO CON MOVIMIENTO</t>
         </is>
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>DAC TELCO 1</t>
+          <t>DAC TELCO MR</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>4074772</t>
+          <t>4074782</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>SERVICIOS GIA E.I.R.L.</t>
+          <t>AMG ENGINEERS S.A.C.</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -12816,17 +12840,17 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
@@ -12843,27 +12867,27 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>4074778</t>
+          <t>4074792</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>INVERSIONES SOLANO SUCNO S.A.C.</t>
+          <t>AQUIJE TITO LUIS ALBERTO</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
@@ -12878,24 +12902,24 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>DAC TELCO MR</t>
+          <t>DAC TELCO 1</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>4074782</t>
+          <t>4074793</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>AMG ENGINEERS S.A.C.</t>
+          <t>GNS COMUNICACIONES E.I.R.L.</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -12905,7 +12929,7 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
@@ -12915,7 +12939,7 @@
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>OPERATIVO CON MOVIMIENTO</t>
+          <t>OPERATIVO SIN MOVIMIENTO</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
@@ -12927,22 +12951,22 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>4074792</t>
+          <t>4074794</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>AQUIJE TITO LUIS ALBERTO</t>
+          <t>SANIZ S.R.L.</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
@@ -12952,7 +12976,7 @@
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
@@ -12969,12 +12993,12 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>4074793</t>
+          <t>4074795</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>GNS COMUNICACIONES E.I.R.L.</t>
+          <t>FR SOLUCIONES INTEGRALES S.A.C.</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -12999,44 +13023,44 @@
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>OPERATIVO SIN MOVIMIENTO</t>
+          <t>OPERATIVO CON MOVIMIENTO</t>
         </is>
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>DAC TELCO 1</t>
+          <t>DACE</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>4074794</t>
+          <t>4074796</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>SANIZ S.R.L.</t>
+          <t>MEGAMOVIL AYACUCHO E.I.R.L.</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
@@ -13053,22 +13077,22 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>4074795</t>
+          <t>4074799</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>FR SOLUCIONES INTEGRALES S.A.C.</t>
+          <t>SMARTH LIKEPLUSS  S.C.R.L.</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
@@ -13088,39 +13112,39 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>DACE</t>
+          <t>DAC TELCO 1</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>4074796</t>
+          <t>4074801</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>MEGAMOVIL AYACUCHO E.I.R.L.</t>
+          <t>RED 5G ATALAYA S.A.C</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
@@ -13137,32 +13161,32 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>4074799</t>
+          <t>4074807</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>SMARTH LIKEPLUSS  S.C.R.L.</t>
+          <t>MAMVI MOVIL E.I.R.L.</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
@@ -13179,32 +13203,32 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>4074801</t>
+          <t>4074808</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>RED 5G ATALAYA S.A.C</t>
+          <t>CORPORACION PAUCAR PERU S.A.C</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
@@ -13221,32 +13245,32 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>4074807</t>
+          <t>4074815</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>MAMVI MOVIL E.I.R.L.</t>
+          <t>MEGAMOVIL D&amp;G 2318 E.I.R.L.</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
@@ -13263,32 +13287,32 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>4074808</t>
+          <t>4074850</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>CORPORACION PAUCAR PERU S.A.C</t>
+          <t>LECON GROUP E.I.R.L.</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="G310" t="inlineStr">
@@ -13298,29 +13322,29 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>DAC TELCO 1</t>
+          <t>DAC TELCO 2</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>4074815</t>
+          <t>4074870</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>MEGAMOVIL D&amp;G 2318 E.I.R.L.</t>
+          <t>VELASQUEZ DE LA CRUZ NILSEN LURENA</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
@@ -13330,7 +13354,7 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
@@ -13347,22 +13371,22 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>4074850</t>
+          <t>4074871</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>LECON GROUP E.I.R.L.</t>
+          <t>FASHION PHONE G Y T  S.A.C.</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
@@ -13382,39 +13406,39 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>DAC TELCO 2</t>
+          <t>DAC TELCO 1</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>4074870</t>
+          <t>4074875</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>VELASQUEZ DE LA CRUZ NILSEN LURENA</t>
+          <t>LIAN CELL COMUNICATION S.R.L.</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
@@ -13431,17 +13455,17 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>4074871</t>
+          <t>4074877</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>FASHION PHONE G Y T  S.A.C.</t>
+          <t>PC TELECOM S.A.C.</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -13451,12 +13475,12 @@
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="G314" t="inlineStr">
@@ -13473,12 +13497,12 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>4074875</t>
+          <t>4074880</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>LIAN CELL COMUNICATION S.R.L.</t>
+          <t>K&amp;D SOLUCIONES MOVILES E.I.R.L.</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -13488,17 +13512,17 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="G315" t="inlineStr">
@@ -13515,12 +13539,12 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>4074877</t>
+          <t>4074883</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>PC TELECOM S.A.C.</t>
+          <t>RC MOVILES S.A.C.</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -13530,17 +13554,17 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="G316" t="inlineStr">
@@ -13557,17 +13581,17 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>4074880</t>
+          <t>4074889</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>K&amp;D SOLUCIONES MOVILES E.I.R.L.</t>
+          <t>GRJ TELECOM E.I.R.L.</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -13577,7 +13601,7 @@
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
@@ -13592,34 +13616,34 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>DAC TELCO 1</t>
+          <t>DACE</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>4074883</t>
+          <t>4074893</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>RC MOVILES S.A.C.</t>
+          <t>INNOVACALL TMK E.I.R.L.</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
@@ -13634,29 +13658,29 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>DAC TELCO 1</t>
+          <t>DAC TELCO MR</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>4074889</t>
+          <t>4074896</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>GRJ TELECOM E.I.R.L.</t>
+          <t>GRUPO JFLORES PERU E.I.R.L.</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
@@ -13666,7 +13690,7 @@
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="G319" t="inlineStr">
@@ -13676,39 +13700,39 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>DACE</t>
+          <t>DAC TELCO 1</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>4074893</t>
+          <t>4074905</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>INNOVACALL TMK E.I.R.L.</t>
+          <t>PEREZ RIVERA PIERO SEBASTIAN</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
@@ -13718,39 +13742,39 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t>DAC TELCO MR</t>
+          <t>DAC TELCO 1</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>4074896</t>
+          <t>4074908</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>GRUPO JFLORES PERU E.I.R.L.</t>
+          <t>INVERSOL RECARGA CENTRO E.I.R.L.</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="G321" t="inlineStr">
@@ -13767,12 +13791,12 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>4074905</t>
+          <t>4074915</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>PEREZ RIVERA PIERO SEBASTIAN</t>
+          <t>IJK MOBILE NETWORK S.A.C.</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -13782,7 +13806,7 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
@@ -13809,22 +13833,22 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>4074908</t>
+          <t>4074916</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>INVERSOL RECARGA CENTRO E.I.R.L.</t>
+          <t>PORTUM SOCIAL MEDIA MARKETING EIRL</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
@@ -13834,7 +13858,7 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
@@ -13844,24 +13868,24 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>DAC TELCO 1</t>
+          <t>DACE</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>4074915</t>
+          <t>4074917</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>IJK MOBILE NETWORK S.A.C.</t>
+          <t>Z &amp; L PERU S.A.C.</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -13871,7 +13895,7 @@
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
@@ -13886,29 +13910,29 @@
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t>DAC TELCO 1</t>
+          <t>DACE</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>4074916</t>
+          <t>4074922</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>PORTUM SOCIAL MEDIA MARKETING EIRL</t>
+          <t>MAYHEL TELECOMUNICACIONES S.A.C.</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
@@ -13918,7 +13942,7 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
@@ -13935,27 +13959,27 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>4074917</t>
+          <t>4074924</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Z &amp; L PERU S.A.C.</t>
+          <t>IMPORTS L &amp; R E.I.R.L.</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
@@ -13970,39 +13994,39 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>DACE</t>
+          <t>DAC TELCO 2</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>4074922</t>
+          <t>4074925</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>MAYHEL TELECOMUNICACIONES S.A.C.</t>
+          <t>G2B TELECOMUNICACIONES  E.I.R.L</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
@@ -14012,24 +14036,24 @@
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>DACE</t>
+          <t>DAC TELCO MR</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>4074924</t>
+          <t>4074934</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>IMPORTS L &amp; R E.I.R.L.</t>
+          <t>CARLITEL S.A.C</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
@@ -14039,12 +14063,12 @@
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
@@ -14054,39 +14078,39 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>DAC TELCO 2</t>
+          <t>DAC TELCO 1</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>4074925</t>
+          <t>4074937</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>G2B TELECOMUNICACIONES  E.I.R.L</t>
+          <t>INVERSIONES RMK S.A.C</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
@@ -14096,29 +14120,29 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>DAC TELCO MR</t>
+          <t>DAC TELCO 1</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>4074934</t>
+          <t>4074942</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>CARLITEL S.A.C</t>
+          <t>H &amp; G SOLUCIONES DE NEGOCIOS S.A.C.</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
@@ -14128,7 +14152,7 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
@@ -14138,24 +14162,24 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>DAC TELCO 1</t>
+          <t>DACE</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>4074937</t>
+          <t>4074943</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>INVERSIONES RMK S.A.C</t>
+          <t>CHACALIAZA GUTIERREZ DIEGO</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -14165,7 +14189,7 @@
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
@@ -14187,12 +14211,12 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>4074942</t>
+          <t>4074946</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>H &amp; G SOLUCIONES DE NEGOCIOS S.A.C.</t>
+          <t>MAKOLL S.A.C.</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -14202,17 +14226,17 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
@@ -14222,39 +14246,39 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t>DACE</t>
+          <t>DAC TELCO MR</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>4074943</t>
+          <t>4074948</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>CHACALIAZA GUTIERREZ DIEGO</t>
+          <t>ASTEC MOVIL E.I.R.L.</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="G333" t="inlineStr">
@@ -14271,32 +14295,32 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>4074946</t>
+          <t>4074949</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>MAKOLL S.A.C.</t>
+          <t>ASCHERI SALDAÑA FIORELLI</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="G334" t="inlineStr">
@@ -14306,34 +14330,34 @@
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>DAC TELCO MR</t>
+          <t>DAC TELCO 1</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>4074948</t>
+          <t>4074951</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>ASTEC MOVIL E.I.R.L.</t>
+          <t>TELETALK S.A.C.</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="F335" t="inlineStr">
@@ -14348,19 +14372,19 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>DAC TELCO 1</t>
+          <t>DAC TELCO 2</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>4074949</t>
+          <t>4074953</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>ASCHERI SALDAÑA FIORELLI</t>
+          <t>MR TELECOMUNICACIONES E INVERSIONES</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -14380,7 +14404,7 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
@@ -14397,12 +14421,12 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>4074951</t>
+          <t>4074959</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>TELETALK S.A.C.</t>
+          <t>MULTISERVICIOS DVASLO E.I.R.L</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -14412,17 +14436,17 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
@@ -14432,29 +14456,29 @@
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>DAC TELCO 2</t>
+          <t>DAC TELCO 1</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>4074953</t>
+          <t>4074971</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>MR TELECOMUNICACIONES E INVERSIONES</t>
+          <t>ZEGARRA ABANTO DIANA KAREN</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
@@ -14464,7 +14488,7 @@
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="G338" t="inlineStr">
@@ -14481,12 +14505,12 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>4074959</t>
+          <t>4074975</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>MULTISERVICIOS DVASLO E.I.R.L</t>
+          <t>WAYRATEC S.A.C.</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -14496,17 +14520,17 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
@@ -14516,19 +14540,19 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>DAC TELCO 1</t>
+          <t>DAC TELCO 2</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>4074971</t>
+          <t>4074976</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>ZEGARRA ABANTO DIANA KAREN</t>
+          <t>OROZCO GOMEZ NAHIDU FIDELINA</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -14565,32 +14589,32 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>4074975</t>
+          <t>4074980</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>WAYRATEC S.A.C.</t>
+          <t>FAJARDO GIRAO TELECOM CENTRO S.A.C.</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="G341" t="inlineStr">
@@ -14600,39 +14624,39 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t>DAC TELCO 2</t>
+          <t>DACE</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>4074976</t>
+          <t>4074982</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>OROZCO GOMEZ NAHIDU FIDELINA</t>
+          <t>TELECOMUNICACIONES SERVITEC YERALD</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="E342" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="G342" t="inlineStr">
@@ -14649,12 +14673,12 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>4074980</t>
+          <t>4074985</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>FAJARDO GIRAO TELECOM CENTRO S.A.C.</t>
+          <t>TELEMARTIN E.I.R.L.</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -14664,17 +14688,17 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="F343" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="G343" t="inlineStr">
@@ -14684,19 +14708,19 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t>DACE</t>
+          <t>DAC TELCO 1</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>4074982</t>
+          <t>4074990</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>TELECOMUNICACIONES SERVITEC YERALD</t>
+          <t>GRUPO &amp; INVERSIONES LUHARD S.A.C.</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -14706,12 +14730,12 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="F344" t="inlineStr">
@@ -14733,32 +14757,32 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>4074985</t>
+          <t>4074991</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>TELEMARTIN E.I.R.L.</t>
+          <t>PRIME CONNECTION S.A.C.</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="G345" t="inlineStr">
@@ -14775,34 +14799,22 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>4074990</t>
+          <t>4074992</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>GRUPO &amp; INVERSIONES LUHARD S.A.C.</t>
+          <t>TELGIMEC S.A.C.</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
-        </is>
-      </c>
-      <c r="D346" t="inlineStr">
-        <is>
-          <t>JOSE LUIS VALVERDE</t>
-        </is>
-      </c>
-      <c r="E346" t="inlineStr">
-        <is>
-          <t>DIEGO RODRIGUEZ</t>
-        </is>
-      </c>
-      <c r="F346" t="inlineStr">
-        <is>
-          <t>RAQUEL CAYETANO</t>
-        </is>
-      </c>
+          <t>YOLANDA OLIVA</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr"/>
+      <c r="E346" t="inlineStr"/>
+      <c r="F346" t="inlineStr"/>
       <c r="G346" t="inlineStr">
         <is>
           <t>OPERATIVO CON MOVIMIENTO</t>
@@ -14810,39 +14822,39 @@
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>DAC TELCO 1</t>
+          <t>DAC TELCO MR/INSTALADOR</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>4074991</t>
+          <t>4074994</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>PRIME CONNECTION S.A.C.</t>
+          <t>KONECTAR BPO S.A.C.</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="G347" t="inlineStr">
@@ -14852,29 +14864,41 @@
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>DAC TELCO 1</t>
+          <t>DAC TELCO MR</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>4074992</t>
+          <t>4074997</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>TELGIMEC S.A.C.</t>
+          <t>KRR CONTAC CENTER S.A.C.</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
-        </is>
-      </c>
-      <c r="D348" t="inlineStr"/>
-      <c r="E348" t="inlineStr"/>
-      <c r="F348" t="inlineStr"/>
+          <t>RAQUEL CAYETANO</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>JUAN CARLOS HUATAY</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>JOSE LUIS VALVERDE</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>YOLANDA OLIVA</t>
+        </is>
+      </c>
       <c r="G348" t="inlineStr">
         <is>
           <t>OPERATIVO CON MOVIMIENTO</t>
@@ -14882,39 +14906,39 @@
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>DAC TELCO MR/INSTALADOR</t>
+          <t>DACE</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>4074994</t>
+          <t>4074998</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>KONECTAR BPO S.A.C.</t>
+          <t>MULTISERVICIOS SMART MOVILES</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="G349" t="inlineStr">
@@ -14924,24 +14948,24 @@
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>DAC TELCO MR</t>
+          <t>DAC TELCO 1</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>4074997</t>
+          <t>4074999</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>KRR CONTAC CENTER S.A.C.</t>
+          <t>GRUPO CASACEL PERU E.I.R.L.</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -14951,7 +14975,7 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="F350" t="inlineStr">
@@ -14966,39 +14990,39 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>DACE</t>
+          <t>DAC TELCO 1</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>4074998</t>
+          <t>4075000</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>MULTISERVICIOS SMART MOVILES</t>
+          <t>TELCO INTEGRALES DEL ORIENTE SAC</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="G351" t="inlineStr">
@@ -15015,32 +15039,32 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>4074999</t>
+          <t>4075001</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>GRUPO CASACEL PERU E.I.R.L.</t>
+          <t>RIVER EMPRESAS E.I.R.L.</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="G352" t="inlineStr">
@@ -15050,29 +15074,29 @@
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>DAC TELCO 1</t>
+          <t>DACE</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>4075000</t>
+          <t>4075003</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>TELCO INTEGRALES DEL ORIENTE SAC</t>
+          <t>NOES COMUNICACIONES E.I.R.L</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
@@ -15082,7 +15106,7 @@
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="G353" t="inlineStr">
@@ -15099,27 +15123,27 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>4075001</t>
+          <t>4075005</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>RIVER EMPRESAS E.I.R.L.</t>
+          <t>R &amp; G COMUNICACIONES E.I.R.L</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="F354" t="inlineStr">
@@ -15134,39 +15158,39 @@
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>DACE</t>
+          <t>DAC TELCO 1</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>4075003</t>
+          <t>4075018</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>NOES COMUNICACIONES E.I.R.L</t>
+          <t>CONEXION DIGITAL E.I.R.L.</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="G355" t="inlineStr">
@@ -15176,24 +15200,24 @@
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>DAC TELCO 1</t>
+          <t>DACE</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>4075005</t>
+          <t>4075019</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>R &amp; G COMUNICACIONES E.I.R.L</t>
+          <t>ARANIS SOLUCIONES DIGITALES S.A.C.</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -15203,12 +15227,12 @@
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="G356" t="inlineStr">
@@ -15218,19 +15242,19 @@
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>DAC TELCO 1</t>
+          <t>DACE</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>4075018</t>
+          <t>4075021</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>CONEXION DIGITAL E.I.R.L.</t>
+          <t>BARRETO GONZALES JAIME OSCAR</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -15240,12 +15264,12 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="F357" t="inlineStr">
@@ -15260,24 +15284,24 @@
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>DACE</t>
+          <t>DAC TELCO 1</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>4075019</t>
+          <t>4075023</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>ARANIS SOLUCIONES DIGITALES S.A.C.</t>
+          <t>NANO SANCHEZ JACKELINE PAOLA</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -15287,12 +15311,12 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
@@ -15302,41 +15326,29 @@
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>DACE</t>
+          <t>DAC TELCO 1</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>4075021</t>
+          <t>4075024</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>BARRETO GONZALES JAIME OSCAR</t>
+          <t>DANVAL TELECOMUNICACIONES E.I.R.L.</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
-        </is>
-      </c>
-      <c r="D359" t="inlineStr">
-        <is>
-          <t>JOSE LUIS VALVERDE</t>
-        </is>
-      </c>
-      <c r="E359" t="inlineStr">
-        <is>
-          <t>DIEGO RODRIGUEZ</t>
-        </is>
-      </c>
-      <c r="F359" t="inlineStr">
-        <is>
-          <t>JUAN CARLOS HUATAY</t>
-        </is>
-      </c>
+          <t>JOSE LUIS VALVERDE</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr"/>
+      <c r="E359" t="inlineStr"/>
+      <c r="F359" t="inlineStr"/>
       <c r="G359" t="inlineStr">
         <is>
           <t>OPERATIVO CON MOVIMIENTO</t>
@@ -15351,34 +15363,22 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>4075023</t>
+          <t>4075025</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>NANO SANCHEZ JACKELINE PAOLA</t>
+          <t>GLOBAL ENGINEERING AND MANAGEMENT</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
-        </is>
-      </c>
-      <c r="D360" t="inlineStr">
-        <is>
-          <t>RAQUEL CAYETANO</t>
-        </is>
-      </c>
-      <c r="E360" t="inlineStr">
-        <is>
-          <t>DIEGO RODRIGUEZ</t>
-        </is>
-      </c>
-      <c r="F360" t="inlineStr">
-        <is>
-          <t>YOLANDA OLIVA</t>
-        </is>
-      </c>
+          <t>DIEGO RODRIGUEZ</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr"/>
+      <c r="E360" t="inlineStr"/>
+      <c r="F360" t="inlineStr"/>
       <c r="G360" t="inlineStr">
         <is>
           <t>OPERATIVO CON MOVIMIENTO</t>
@@ -15386,29 +15386,41 @@
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>DAC TELCO 1</t>
+          <t>DAC TELCO MR</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>4075024</t>
+          <t>4075027</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>DANVAL TELECOMUNICACIONES E.I.R.L.</t>
+          <t>PALACIOS ALTAMIRANO ERIKA LILIANA</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
-        </is>
-      </c>
-      <c r="D361" t="inlineStr"/>
-      <c r="E361" t="inlineStr"/>
-      <c r="F361" t="inlineStr"/>
+          <t>RAQUEL CAYETANO</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>DIEGO RODRIGUEZ</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>YOLANDA OLIVA</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>JUAN CARLOS HUATAY</t>
+        </is>
+      </c>
       <c r="G361" t="inlineStr">
         <is>
           <t>OPERATIVO CON MOVIMIENTO</t>
@@ -15423,22 +15435,34 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>4075025</t>
+          <t>4075031</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>GLOBAL ENGINEERING AND MANAGEMENT</t>
+          <t>QUISPE AYALES RODOLFO</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
-        </is>
-      </c>
-      <c r="D362" t="inlineStr"/>
-      <c r="E362" t="inlineStr"/>
-      <c r="F362" t="inlineStr"/>
+          <t>RAQUEL CAYETANO</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>JUAN CARLOS HUATAY</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>YOLANDA OLIVA</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>JOSE LUIS VALVERDE</t>
+        </is>
+      </c>
       <c r="G362" t="inlineStr">
         <is>
           <t>OPERATIVO CON MOVIMIENTO</t>
@@ -15446,19 +15470,19 @@
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>DAC TELCO MR</t>
+          <t>DAC TELCO 1</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>4075027</t>
+          <t>4075032</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>PALACIOS ALTAMIRANO ERIKA LILIANA</t>
+          <t>DAM SMARTCOM CONSULTING E.I.R.L.</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -15468,12 +15492,12 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="F363" t="inlineStr">
@@ -15495,17 +15519,17 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>4075031</t>
+          <t>4075034</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>QUISPE AYALES RODOLFO</t>
+          <t>MOVILPLUS CYR E.I.R.L.</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -15515,12 +15539,12 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="F364" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="G364" t="inlineStr">
@@ -15530,41 +15554,29 @@
       </c>
       <c r="H364" t="inlineStr">
         <is>
-          <t>DAC TELCO 1</t>
+          <t>DACE</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>4075032</t>
+          <t>4075036</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>DAM SMARTCOM CONSULTING E.I.R.L.</t>
+          <t>MOKSHA VQ INVERSIONES Y CONSULTORIA</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
-        </is>
-      </c>
-      <c r="D365" t="inlineStr">
-        <is>
-          <t>YOLANDA OLIVA</t>
-        </is>
-      </c>
-      <c r="E365" t="inlineStr">
-        <is>
-          <t>JOSE LUIS VALVERDE</t>
-        </is>
-      </c>
-      <c r="F365" t="inlineStr">
-        <is>
-          <t>JUAN CARLOS HUATAY</t>
-        </is>
-      </c>
+          <t>JOSE LUIS VALVERDE</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr"/>
+      <c r="E365" t="inlineStr"/>
+      <c r="F365" t="inlineStr"/>
       <c r="G365" t="inlineStr">
         <is>
           <t>OPERATIVO CON MOVIMIENTO</t>
@@ -15579,34 +15591,22 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>4075034</t>
+          <t>4075040</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>MOVILPLUS CYR E.I.R.L.</t>
+          <t>GRUPO INNOVA &amp; SHOP S.A.C.</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
-        </is>
-      </c>
-      <c r="D366" t="inlineStr">
-        <is>
-          <t>JUAN CARLOS HUATAY</t>
-        </is>
-      </c>
-      <c r="E366" t="inlineStr">
-        <is>
-          <t>DIEGO RODRIGUEZ</t>
-        </is>
-      </c>
-      <c r="F366" t="inlineStr">
-        <is>
-          <t>RAQUEL CAYETANO</t>
-        </is>
-      </c>
+          <t>YOLANDA OLIVA</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr"/>
+      <c r="E366" t="inlineStr"/>
+      <c r="F366" t="inlineStr"/>
       <c r="G366" t="inlineStr">
         <is>
           <t>OPERATIVO CON MOVIMIENTO</t>
@@ -15614,24 +15614,24 @@
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>DACE</t>
+          <t>DAC TELCO 1</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>4075036</t>
+          <t>4075041</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>MOKSHA VQ INVERSIONES Y CONSULTORIA</t>
+          <t>CORPORACION JPM PERU S.A.C.</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="D367" t="inlineStr"/>
@@ -15651,17 +15651,17 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>4075040</t>
+          <t>4075042</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>GRUPO INNOVA &amp; SHOP S.A.C.</t>
+          <t>RIVADENEYRA ARICARI TESSY ASTRID</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="D368" t="inlineStr"/>
@@ -15681,17 +15681,17 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>4075041</t>
+          <t>4075043</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>CORPORACION JPM PERU S.A.C.</t>
+          <t>ESPINO ANGULO LINCEY NICOLL</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="D369" t="inlineStr"/>
@@ -15711,17 +15711,17 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>4075043</t>
+          <t>4075044</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>ESPINO ANGULO LINCEY NICOLL</t>
+          <t>PANDURO MONSALVE NAZIA YASHMIR</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="D370" t="inlineStr"/>
@@ -16065,22 +16065,34 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>5021920</t>
+          <t>5022141</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>UNION ELECTRICA S.A. SUCURSAL DEL PERU</t>
+          <t>MERCADOTEC DIRECTA Y CONTACT CENTER</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
-        </is>
-      </c>
-      <c r="D379" t="inlineStr"/>
-      <c r="E379" t="inlineStr"/>
-      <c r="F379" t="inlineStr"/>
+          <t>JOSE LUIS VALVERDE</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>JUAN CARLOS HUATAY</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>RAQUEL CAYETANO</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>YOLANDA OLIVA</t>
+        </is>
+      </c>
       <c r="G379" t="inlineStr">
         <is>
           <t>OPERATIVO CON MOVIMIENTO</t>
@@ -16088,39 +16100,39 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>RED</t>
+          <t>CONTACT CENTER</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>5022141</t>
+          <t>5023298</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>MERCADOTEC DIRECTA Y CONTACT CENTER</t>
+          <t>BPO CONSULTING S.A.C.</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="G380" t="inlineStr">
@@ -16130,24 +16142,24 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>CONTACT CENTER</t>
+          <t>TELEVENTAS</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>5023298</t>
+          <t>5027949</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>BPO CONSULTING S.A.C.</t>
+          <t>CORPORACION SAPIA S.A.</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
@@ -16162,7 +16174,7 @@
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="G381" t="inlineStr">
@@ -16172,39 +16184,39 @@
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>TELEVENTAS</t>
+          <t>CONTACT CENTER</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>5027949</t>
+          <t>5028136</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>CORPORACION SAPIA S.A.</t>
+          <t>COBRA PERU S.A.</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="G382" t="inlineStr">
@@ -16214,34 +16226,34 @@
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>CONTACT CENTER</t>
+          <t>INSTALADOR</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>5028136</t>
+          <t>5035965</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>COBRA PERU S.A.</t>
+          <t>GESTION DE COBRANZAS Y RECUPEROS SRL</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="F383" t="inlineStr">
@@ -16251,86 +16263,86 @@
       </c>
       <c r="G383" t="inlineStr">
         <is>
-          <t>OPERATIVO CON MOVIMIENTO</t>
+          <t>OPERATIVO SIN MOVIMIENTO</t>
         </is>
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>INSTALADOR</t>
+          <t>DAC TELCO MR</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>5035965</t>
+          <t>5039043</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>GESTION DE COBRANZAS Y RECUPEROS SRL</t>
+          <t>AMG INTERNATIONAL EIRL</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="G384" t="inlineStr">
         <is>
-          <t>OPERATIVO SIN MOVIMIENTO</t>
+          <t>OPERATIVO CON MOVIMIENTO</t>
         </is>
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>DAC TELCO MR</t>
+          <t>CONTACT CENTER</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>5039043</t>
+          <t>5046085</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>AMG INTERNATIONAL EIRL</t>
+          <t>BPO PERU S.A.C.</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="G385" t="inlineStr">
@@ -16340,24 +16352,24 @@
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>CONTACT CENTER</t>
+          <t>TELEVENTAS / CONTACT CENTER/CACE/DAC TELCO 1</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>5046085</t>
+          <t>5047169</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>BPO PERU S.A.C.</t>
+          <t>MOTIVA SOLUCIONES S.A.C</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
@@ -16367,12 +16379,12 @@
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="G386" t="inlineStr">
@@ -16382,39 +16394,39 @@
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>TELEVENTAS / CONTACT CENTER/CACE/DAC TELCO 1</t>
+          <t>PROVEEDOR</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>5047169</t>
+          <t>5049041</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>MOTIVA SOLUCIONES S.A.C</t>
+          <t>TELEATENTO DEL PERU S.A.C.</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="G387" t="inlineStr">
@@ -16424,29 +16436,29 @@
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>PROVEEDOR</t>
+          <t>TELEVENTAS</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>5049041</t>
+          <t>5055141</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>TELEATENTO DEL PERU S.A.C.</t>
+          <t>IMPULSA365 S.A.C.</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
@@ -16456,7 +16468,7 @@
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="G388" t="inlineStr">
@@ -16473,17 +16485,17 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>5055141</t>
+          <t>5082364</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>IMPULSA365 S.A.C.</t>
+          <t>PARTNER SERVICE S.A.C</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
@@ -16515,12 +16527,12 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>5082364</t>
+          <t>5092155</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>PARTNER SERVICE S.A.C</t>
+          <t>GLM TELECOMUNICACIONES S.A.C.</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -16530,12 +16542,12 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="F390" t="inlineStr">
@@ -16550,39 +16562,39 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>TELEVENTAS</t>
+          <t>DAC TELCO MR</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>5092155</t>
+          <t>5103212</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>GLM TELECOMUNICACIONES S.A.C.</t>
+          <t>ANCOMA CONTAC CENTER S.A.C</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="G391" t="inlineStr">
@@ -16592,19 +16604,19 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>DAC TELCO MR</t>
+          <t>TELEVENTAS</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>5103212</t>
+          <t>5107879</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>ANCOMA CONTAC CENTER S.A.C</t>
+          <t>VILCHEZ YANGALI CARLOS ALBERTO</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -16619,12 +16631,12 @@
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="G392" t="inlineStr">
@@ -16634,39 +16646,39 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>TELEVENTAS</t>
+          <t>DAC TELCO 1</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>5107879</t>
+          <t>5116708</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>VILCHEZ YANGALI CARLOS ALBERTO</t>
+          <t>DOMINIONPERU SOLUCIONES Y SERVICIOS S.A.C.</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="G393" t="inlineStr">
@@ -16676,29 +16688,29 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>DAC TELCO 1</t>
+          <t>INSTALADOR / RED</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>5116708</t>
+          <t>5118630</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>DOMINIONPERU SOLUCIONES Y SERVICIOS S.A.C.</t>
+          <t>GHI CONSULTORES EMPRESARIALES SAC</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
@@ -16708,7 +16720,7 @@
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="G394" t="inlineStr">
@@ -16718,39 +16730,39 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>INSTALADOR / RED</t>
+          <t>RECARGA FFVV</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>5118630</t>
+          <t>5122297</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>GHI CONSULTORES EMPRESARIALES SAC</t>
+          <t>GMRC S.A.</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="G395" t="inlineStr">
@@ -16760,34 +16772,34 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>RECARGA FFVV</t>
+          <t>DAC TELCO 1</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>5122297</t>
+          <t>5135902</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>GMRC S.A.</t>
+          <t>CUBOX S.A.C.</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="F396" t="inlineStr">
@@ -16802,39 +16814,39 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>DAC TELCO 1</t>
+          <t>TELEVENTAS</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>5135902</t>
+          <t>5137855</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>CUBOX S.A.C.</t>
+          <t>COVISIAN ESPAÑA S.L. SOCIEDAD UNIP</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="G397" t="inlineStr">
@@ -16851,32 +16863,32 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>5137855</t>
+          <t>5139921</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>COVISIAN ESPAÑA S.L. SOCIEDAD UNIP</t>
+          <t>STAR MOBILE S.A.C.</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="G398" t="inlineStr">
@@ -16886,39 +16898,39 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>TELEVENTAS</t>
+          <t>DACE</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>5139921</t>
+          <t>5140117</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>STAR MOBILE S.A.C.</t>
+          <t>FIBERTEL AG CONSTRUCCIONES SAC</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="G399" t="inlineStr">
@@ -16928,39 +16940,39 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>DACE</t>
+          <t>DAC TELCO MR</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>5140117</t>
+          <t>5144141</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>FIBERTEL AG CONSTRUCCIONES SAC</t>
+          <t xml:space="preserve">PUBLIPHONE </t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="G400" t="inlineStr">
@@ -16970,19 +16982,19 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>DAC TELCO MR</t>
+          <t>DACE</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>5144141</t>
+          <t>5145287</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t xml:space="preserve">PUBLIPHONE </t>
+          <t>LICENCIAS PROYECTOS Y SEGURIDAD Y SALUD SL</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -17002,7 +17014,7 @@
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="G401" t="inlineStr">
@@ -17012,39 +17024,39 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>DACE</t>
+          <t>INSTALADOR</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>5145287</t>
+          <t>5147391</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>LICENCIAS PROYECTOS Y SEGURIDAD Y SALUD SL</t>
+          <t>IPSOS OPINION Y MERCADO S.A.</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="G402" t="inlineStr">
@@ -17054,24 +17066,24 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>INSTALADOR</t>
+          <t>TELEVENTAS</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>5147391</t>
+          <t>5149773</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>IPSOS OPINION Y MERCADO S.A.</t>
+          <t>EMERAL LOGISTICS S.A.C.</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>RAQUEL CAYETANO</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
@@ -17081,7 +17093,7 @@
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>RAQUEL CAYETANO</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="F403" t="inlineStr">
@@ -17095,48 +17107,6 @@
         </is>
       </c>
       <c r="H403" t="inlineStr">
-        <is>
-          <t>TELEVENTAS</t>
-        </is>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" t="inlineStr">
-        <is>
-          <t>5149773</t>
-        </is>
-      </c>
-      <c r="B404" t="inlineStr">
-        <is>
-          <t>EMERAL LOGISTICS S.A.C.</t>
-        </is>
-      </c>
-      <c r="C404" t="inlineStr">
-        <is>
-          <t>RAQUEL CAYETANO</t>
-        </is>
-      </c>
-      <c r="D404" t="inlineStr">
-        <is>
-          <t>JOSE LUIS VALVERDE</t>
-        </is>
-      </c>
-      <c r="E404" t="inlineStr">
-        <is>
-          <t>JUAN CARLOS HUATAY</t>
-        </is>
-      </c>
-      <c r="F404" t="inlineStr">
-        <is>
-          <t>YOLANDA OLIVA</t>
-        </is>
-      </c>
-      <c r="G404" t="inlineStr">
-        <is>
-          <t>OPERATIVO CON MOVIMIENTO</t>
-        </is>
-      </c>
-      <c r="H404" t="inlineStr">
         <is>
           <t>INSTALADOR</t>
         </is>
@@ -19462,7 +19432,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>OPERATIVO CON MOVIMIENTO</t>
+          <t>OPERATIVO SIN MOVIMIENTO</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -30541,12 +30511,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>5007079</t>
+          <t>4075044</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>CIA AMERICANA DE MULTISERV DEL PERU SA</t>
+          <t>PANDURO MONSALVE NAZIA YASHMIR</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -30559,24 +30529,24 @@
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>PROCESO DE RESOLUCIÓN</t>
+          <t>OPERATIVO CON MOVIMIENTO</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>DAC TELCO MR</t>
+          <t>DAC TELCO 1</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>5008890</t>
+          <t>5007079</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>MDY INT BPO SAC</t>
+          <t>CIA AMERICANA DE MULTISERV DEL PERU SA</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -30584,41 +30554,29 @@
           <t>YOLANDA OLIVA</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>RAQUEL CAYETANO</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>JUAN CARLOS HUATAY</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>JOSE LUIS VALVERDE</t>
-        </is>
-      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>OPERATIVO CON MOVIMIENTO</t>
+          <t>PROCESO DE RESOLUCIÓN</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>TELEVENTAS / CONTACT CENTER</t>
+          <t>DAC TELCO MR</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>5021920</t>
+          <t>5008890</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>UNION ELECTRICA S.A. SUCURSAL DEL PERU</t>
+          <t>MDY INT BPO SAC</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -30626,9 +30584,21 @@
           <t>YOLANDA OLIVA</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>RAQUEL CAYETANO</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>JUAN CARLOS HUATAY</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>JOSE LUIS VALVERDE</t>
+        </is>
+      </c>
       <c r="G78" t="inlineStr">
         <is>
           <t>OPERATIVO CON MOVIMIENTO</t>
@@ -30636,7 +30606,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>RED</t>
+          <t>TELEVENTAS / CONTACT CENTER</t>
         </is>
       </c>
     </row>
@@ -30693,7 +30663,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30949,7 +30919,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>DAC TELCO 1/INSTALADOR</t>
+          <t>INSTALADOR</t>
         </is>
       </c>
     </row>
@@ -32258,12 +32228,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>4073906</t>
+          <t>4074017</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>RED MOBILE FAED E.I.R.L.</t>
+          <t>JKS YOMI E.I.R.L.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -32271,9 +32241,21 @@
           <t>RAQUEL CAYETANO</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>JUAN CARLOS HUATAY</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>JOSE LUIS VALVERDE</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>YOLANDA OLIVA</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr">
         <is>
           <t>OPERATIVO CON MOVIMIENTO</t>
@@ -32288,12 +32270,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>4074017</t>
+          <t>4074074</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>JKS YOMI E.I.R.L.</t>
+          <t>LOPEZ VIDEIRA LILIANA</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -32308,12 +32290,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -32323,19 +32305,19 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>DACE</t>
+          <t>DAC TELCO 1</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>4074074</t>
+          <t>4074175</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>LOPEZ VIDEIRA LILIANA</t>
+          <t>COMPUSERVICE IQUITOS E.I.R.L</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -32345,17 +32327,17 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -32372,12 +32354,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>4074175</t>
+          <t>4074315</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>COMPUSERVICE IQUITOS E.I.R.L</t>
+          <t>RIMAY CONNECTION SAC</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -32387,17 +32369,17 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -32414,12 +32396,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>4074315</t>
+          <t>4074355</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>RIMAY CONNECTION SAC</t>
+          <t xml:space="preserve">NEXUM DIGITAL GROUP S.A.C. </t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -32429,17 +32411,17 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -32449,19 +32431,19 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>DAC TELCO 1</t>
+          <t>DACE</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>4074355</t>
+          <t>4074367</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve">NEXUM DIGITAL GROUP S.A.C. </t>
+          <t>GEMINIS TELECOMUNICACIONES E.I.R.L.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -32471,17 +32453,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -32498,12 +32480,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>4074367</t>
+          <t>4074411</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>GEMINIS TELECOMUNICACIONES E.I.R.L.</t>
+          <t>CHIRINOS GUERREROS LUIS ENRIQUE</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -32513,17 +32495,17 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -32533,19 +32515,19 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>DACE</t>
+          <t>DAC TELCO 1</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>4074411</t>
+          <t>4074442</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CHIRINOS GUERREROS LUIS ENRIQUE</t>
+          <t>EMPRESA TECNOLOGICA R&amp;C E.I.R.L.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -32555,17 +32537,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -32582,12 +32564,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>4074442</t>
+          <t>4074483</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>EMPRESA TECNOLOGICA R&amp;C E.I.R.L.</t>
+          <t>DE LA CRUZ NOA ANITA</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -32597,17 +32579,17 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -32624,12 +32606,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>4074483</t>
+          <t>4074528</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>DE LA CRUZ NOA ANITA</t>
+          <t xml:space="preserve">ACJ FLORES SERVICIOS GLOBALES S.A.C. </t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -32639,17 +32621,17 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -32659,19 +32641,19 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>DAC TELCO 1</t>
+          <t>DAC TELCO MR</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>4074528</t>
+          <t>4074539</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve">ACJ FLORES SERVICIOS GLOBALES S.A.C. </t>
+          <t>TELECOMUNICACIONES LA TOXICA S.R.L</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -32701,19 +32683,19 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>DAC TELCO MR</t>
+          <t>DAC TELCO 1</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>4074539</t>
+          <t>4074559</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TELECOMUNICACIONES LA TOXICA S.R.L</t>
+          <t>MOVIL TOTAL PERU E.I.R.L.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -32723,17 +32705,17 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -32750,12 +32732,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>4074559</t>
+          <t>4074611</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MOVIL TOTAL PERU E.I.R.L.</t>
+          <t>RB INVERSIONES E.I.R.L</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -32770,12 +32752,12 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -32785,19 +32767,19 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>DAC TELCO 1</t>
+          <t>DAC TELCO 2</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>4074605</t>
+          <t>4074633</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MR CALL SOLUTION S.A.C.</t>
+          <t>ODJ TELECOMUNICACIONES S.A.C</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -32805,9 +32787,21 @@
           <t>RAQUEL CAYETANO</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>YOLANDA OLIVA</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>DIEGO RODRIGUEZ</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>JOSE LUIS VALVERDE</t>
+        </is>
+      </c>
       <c r="G51" t="inlineStr">
         <is>
           <t>OPERATIVO CON MOVIMIENTO</t>
@@ -32822,12 +32816,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>4074611</t>
+          <t>4074645</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>RB INVERSIONES E.I.R.L</t>
+          <t>CORPORACION DIGITAL MOVIL E.I.R.L</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -32857,19 +32851,19 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>DAC TELCO 2</t>
+          <t>DAC TELCO 1</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>4074633</t>
+          <t>4074690</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ODJ TELECOMUNICACIONES S.A.C</t>
+          <t>ATIQ BPO E.I.R.L.</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -32879,39 +32873,39 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>OPERATIVO CON MOVIMIENTO</t>
+          <t>OPERATIVO SIN MOVIMIENTO</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>DAC TELCO 1</t>
+          <t>DAC TELCO MR</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>4074645</t>
+          <t>4074715</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>CORPORACION DIGITAL MOVIL E.I.R.L</t>
+          <t>NOA INGA DAVID</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -32921,17 +32915,17 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -32948,12 +32942,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>4074690</t>
+          <t>4074772</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ATIQ BPO E.I.R.L.</t>
+          <t>SERVICIOS GIA E.I.R.L.</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -32963,12 +32957,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -32978,24 +32972,24 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>OPERATIVO SIN MOVIMIENTO</t>
+          <t>OPERATIVO CON MOVIMIENTO</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>DAC TELCO MR</t>
+          <t>DAC TELCO 1</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>4074715</t>
+          <t>4074782</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NOA INGA DAVID</t>
+          <t>AMG ENGINEERS S.A.C.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -33005,17 +32999,17 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -33032,12 +33026,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>4074772</t>
+          <t>4074794</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>SERVICIOS GIA E.I.R.L.</t>
+          <t>SANIZ S.R.L.</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -33047,7 +33041,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -33057,7 +33051,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -33074,12 +33068,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>4074782</t>
+          <t>4074871</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>AMG ENGINEERS S.A.C.</t>
+          <t>FASHION PHONE G Y T  S.A.C.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -33089,17 +33083,17 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -33116,12 +33110,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>4074794</t>
+          <t>4074893</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>SANIZ S.R.L.</t>
+          <t>INNOVACALL TMK E.I.R.L.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -33131,17 +33125,17 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -33151,19 +33145,19 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>DAC TELCO 1</t>
+          <t>DAC TELCO MR</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>4074871</t>
+          <t>4074896</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>FASHION PHONE G Y T  S.A.C.</t>
+          <t>GRUPO JFLORES PERU E.I.R.L.</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -33173,17 +33167,17 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -33200,12 +33194,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>4074893</t>
+          <t>4074916</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>INNOVACALL TMK E.I.R.L.</t>
+          <t>PORTUM SOCIAL MEDIA MARKETING EIRL</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -33220,7 +33214,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -33235,19 +33229,19 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>DAC TELCO MR</t>
+          <t>DACE</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>4074896</t>
+          <t>4074942</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>GRUPO JFLORES PERU E.I.R.L.</t>
+          <t>H &amp; G SOLUCIONES DE NEGOCIOS S.A.C.</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -33277,19 +33271,19 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>DAC TELCO 1</t>
+          <t>DACE</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>4074916</t>
+          <t>4074943</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>PORTUM SOCIAL MEDIA MARKETING EIRL</t>
+          <t>CHACALIAZA GUTIERREZ DIEGO</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -33299,7 +33293,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -33309,7 +33303,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -33319,19 +33313,19 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>DACE</t>
+          <t>DAC TELCO 1</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>4074942</t>
+          <t>4074946</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>H &amp; G SOLUCIONES DE NEGOCIOS S.A.C.</t>
+          <t>MAKOLL S.A.C.</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -33341,17 +33335,17 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -33361,19 +33355,19 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>DACE</t>
+          <t>DAC TELCO MR</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>4074943</t>
+          <t>4074997</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>CHACALIAZA GUTIERREZ DIEGO</t>
+          <t>KRR CONTAC CENTER S.A.C.</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -33383,17 +33377,17 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -33403,19 +33397,19 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>DAC TELCO 1</t>
+          <t>DACE</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>4074946</t>
+          <t>4075003</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MAKOLL S.A.C.</t>
+          <t>NOES COMUNICACIONES E.I.R.L</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -33425,17 +33419,17 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -33445,19 +33439,19 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>DAC TELCO MR</t>
+          <t>DAC TELCO 1</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>4074997</t>
+          <t>4075027</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>KRR CONTAC CENTER S.A.C.</t>
+          <t>PALACIOS ALTAMIRANO ERIKA LILIANA</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -33467,17 +33461,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -33487,19 +33481,19 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>DACE</t>
+          <t>DAC TELCO 1</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>4075003</t>
+          <t>4075031</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>NOES COMUNICACIONES E.I.R.L</t>
+          <t>QUISPE AYALES RODOLFO</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -33509,12 +33503,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -33536,12 +33530,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>4075027</t>
+          <t>4075032</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>PALACIOS ALTAMIRANO ERIKA LILIANA</t>
+          <t>DAM SMARTCOM CONSULTING E.I.R.L.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -33551,12 +33545,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -33578,12 +33572,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>4075031</t>
+          <t>4075042</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>QUISPE AYALES RODOLFO</t>
+          <t>RIVADENEYRA ARICARI TESSY ASTRID</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -33591,21 +33585,9 @@
           <t>RAQUEL CAYETANO</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>JUAN CARLOS HUATAY</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>YOLANDA OLIVA</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>JOSE LUIS VALVERDE</t>
-        </is>
-      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
           <t>OPERATIVO CON MOVIMIENTO</t>
@@ -33620,12 +33602,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>4075032</t>
+          <t>4075043</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>DAM SMARTCOM CONSULTING E.I.R.L.</t>
+          <t>ESPINO ANGULO LINCEY NICOLL</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -33633,21 +33615,9 @@
           <t>RAQUEL CAYETANO</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>YOLANDA OLIVA</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>JOSE LUIS VALVERDE</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>JUAN CARLOS HUATAY</t>
-        </is>
-      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
           <t>OPERATIVO CON MOVIMIENTO</t>
@@ -33662,12 +33632,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>4075043</t>
+          <t>5016808</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ESPINO ANGULO LINCEY NICOLL</t>
+          <t>SISCARD PERU S.A.C.</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -33675,9 +33645,21 @@
           <t>RAQUEL CAYETANO</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>JUAN CARLOS HUATAY</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>DIEGO RODRIGUEZ</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>JOSE LUIS VALVERDE</t>
+        </is>
+      </c>
       <c r="G72" t="inlineStr">
         <is>
           <t>OPERATIVO CON MOVIMIENTO</t>
@@ -33685,19 +33667,19 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>DAC TELCO 1</t>
+          <t>INSTALADOR</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>5016808</t>
+          <t>5021200</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>SISCARD PERU S.A.C.</t>
+          <t>S. L. DEL PERU S.A.C.</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -33712,34 +33694,34 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>OPERATIVO CON MOVIMIENTO</t>
+          <t>OPERATIVO SIN MOVIMIENTO</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>INSTALADOR</t>
+          <t>TELEVENTAS</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>5021200</t>
+          <t>5023298</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>S. L. DEL PERU S.A.C.</t>
+          <t>BPO CONSULTING S.A.C.</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -33749,22 +33731,22 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>OPERATIVO SIN MOVIMIENTO</t>
+          <t>OPERATIVO CON MOVIMIENTO</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -33776,12 +33758,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>5023298</t>
+          <t>5028136</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>BPO CONSULTING S.A.C.</t>
+          <t>COBRA PERU S.A.</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -33791,12 +33773,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -33811,19 +33793,19 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>TELEVENTAS</t>
+          <t>INSTALADOR</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>5028136</t>
+          <t>5039043</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>COBRA PERU S.A.</t>
+          <t>AMG INTERNATIONAL EIRL</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -33838,12 +33820,12 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -33853,19 +33835,19 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>INSTALADOR</t>
+          <t>CONTACT CENTER</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>5039043</t>
+          <t>5082364</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>AMG INTERNATIONAL EIRL</t>
+          <t>PARTNER SERVICE S.A.C</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -33875,7 +33857,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -33885,7 +33867,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -33895,19 +33877,19 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>CONTACT CENTER</t>
+          <t>TELEVENTAS</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>5082364</t>
+          <t>5092155</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>PARTNER SERVICE S.A.C</t>
+          <t>GLM TELECOMUNICACIONES S.A.C.</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -33917,12 +33899,12 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -33937,19 +33919,19 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>TELEVENTAS</t>
+          <t>DAC TELCO MR</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>5092155</t>
+          <t>5122297</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>GLM TELECOMUNICACIONES S.A.C.</t>
+          <t>GMRC S.A.</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -33964,12 +33946,12 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>DIEGO RODRIGUEZ</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -33979,19 +33961,19 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>DAC TELCO MR</t>
+          <t>DAC TELCO 1</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>5122297</t>
+          <t>5139921</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>GMRC S.A.</t>
+          <t>STAR MOBILE S.A.C.</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -34011,7 +33993,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>DIEGO RODRIGUEZ</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -34021,19 +34003,19 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>DAC TELCO 1</t>
+          <t>DACE</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>5139921</t>
+          <t>5149773</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>STAR MOBILE S.A.C.</t>
+          <t>EMERAL LOGISTICS S.A.C.</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -34043,17 +34025,17 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>JUAN CARLOS HUATAY</t>
+          <t>JOSE LUIS VALVERDE</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>YOLANDA OLIVA</t>
+          <t>JUAN CARLOS HUATAY</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>JOSE LUIS VALVERDE</t>
+          <t>YOLANDA OLIVA</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -34062,48 +34044,6 @@
         </is>
       </c>
       <c r="H81" t="inlineStr">
-        <is>
-          <t>DACE</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>5149773</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>EMERAL LOGISTICS S.A.C.</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>RAQUEL CAYETANO</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>JOSE LUIS VALVERDE</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>JUAN CARLOS HUATAY</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>YOLANDA OLIVA</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>OPERATIVO CON MOVIMIENTO</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
         <is>
           <t>INSTALADOR</t>
         </is>
